--- a/HWP_polarimeter_high.xlsx
+++ b/HWP_polarimeter_high.xlsx
@@ -10,6 +10,7 @@
     <sheet name="measured" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="calculated" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Adjusted" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Adjusted2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1521,4 +1522,435 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>theta</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Jxx</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jyy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>trace</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0006887052346870647</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.999311301418417</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.001386708065758435</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9986273973759898</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.02716108452717102</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9732370424326104</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.1625859059589901</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.000796418908678</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1149122167396198</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8857955153245778</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.3190434661154541</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.001415979067074</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2491450626833772</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7517097249621988</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.4327641065136215</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.001710316635315</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4010155596544819</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5998933824633242</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.4904758735584562</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.001818714494147</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5802814408440432</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4203885644770028</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.4939065535356619</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.001340462982025</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>30</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7469675811998441</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2530323967879994</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.4346361159641195</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9998030677885762</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8749999522573777</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1250000241203859</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.3288904983564416</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9975878422988075</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>40</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9635599038987996</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.03644008401447181</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.178696574538335</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9936404996279151</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>45</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9950738935951535</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.004926108353979964</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.007874032793694044</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9903203210430065</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>50</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9684844083951484</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.03151558018545603</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1600566648067495</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9901915529970468</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>55</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8861031058426012</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1138968520728944</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3116045934683438</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9923460524371626</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7598707014998497</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2401292277364912</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4235463032925153</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.993848471076708</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5938173243659502</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4061825851636688</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.4884974709780901</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9948628655113572</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>70</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4101123399312268</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5898875674344477</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4891151555979193</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9946267444487499</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>75</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.2627478908029525</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7372520424212111</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.4373229442429809</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9950797432983463</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>80</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1273314383076676</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.872668530423148</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.330703021292808</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9964926357567788</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>85</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.03865607235227576</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9613439187653205</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1889450954510491</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9970769202667797</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>90</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.001078360891874376</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9989216454069046</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0111966217542146</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9980963452020648</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/HWP_polarimeter_high.xlsx
+++ b/HWP_polarimeter_high.xlsx
@@ -11,6 +11,7 @@
     <sheet name="calculated" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Adjusted" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Adjusted2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="rho" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1953,4 +1954,435 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>theta</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Jxx</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jyy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>trace_sq</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0007136929823724444</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9992864399844273</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.001386684132653033</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9985777442801911</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0271634855578083</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9728366541305453</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.162516745045145</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9999723954077009</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1148364855748853</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8851641967665118</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.3188135790533821</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9999872700341491</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2489336868765835</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7510667813074985</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.4323925834539165</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9999959828974789</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4006519051095231</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5993485010346</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.4900289124571287</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9999972448481449</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5798928673538779</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4201071576441872</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.4935754903954623</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9999992909500226</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>30</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7469526108688559</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2530472845091397</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.4346097085343356</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9997423285858503</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8749988923054343</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1250011303305274</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.3288897868446408</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.997585327901073</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>40</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9635598982079948</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.03644018136469517</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.1786957333112875</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9936398944598108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>45</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9950894009722699</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.004911038213265518</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.007874139163917023</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9903510383588288</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>50</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9684668929003352</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.03153298701405844</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.160038701472048</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9901472238517766</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>55</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8860815516606284</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1139185069612994</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3115824374782751</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9922851731114052</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7598583437729597</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.240141654066944</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4235250518694544</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9937996557414414</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5938154400749823</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4061846162554529</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.4884871092788996</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9948420312173456</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>70</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4101135175923994</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5898867049572349</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4891098270750975</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9946162678801789</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>75</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.2627534397818948</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7372465756407056</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.4373131198750824</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9950574130409209</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>80</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1273358720628602</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8726641438642255</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.3306994357323851</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9964813658877267</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>85</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.03864335819542286</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9613566552656744</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1889503866152527</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9971044249603314</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>90</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.001059429823470423</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.998940570739852</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.01119670036113816</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9981341184595662</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/HWP_polarimeter_high.xlsx
+++ b/HWP_polarimeter_high.xlsx
@@ -2007,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0007136929823724444</v>
+        <v>0.0007150496812154841</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9992864399844273</v>
+        <v>0.9992846183408213</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001386684132653033</v>
+        <v>0.001386634363100751</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9985777442801911</v>
+        <v>0.9985741052583214</v>
       </c>
     </row>
     <row r="3">
@@ -2027,19 +2027,19 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0271634855578083</v>
+        <v>0.02715843561308316</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9728366541305453</v>
+        <v>0.9728411201674454</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.162516745045145</v>
+        <v>-0.1625183114191731</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999723954077009</v>
+        <v>0.9999818288066786</v>
       </c>
     </row>
     <row r="4">
@@ -2047,19 +2047,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1148364855748853</v>
+        <v>0.1148315126476582</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8851641967665118</v>
+        <v>0.8851683406277803</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3188135790533821</v>
+        <v>-0.31881726601589</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999872700341491</v>
+        <v>0.9999981657663808</v>
       </c>
     </row>
     <row r="5">
@@ -2067,19 +2067,19 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2489336868765835</v>
+        <v>0.2489324760914501</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7510667813074985</v>
+        <v>0.7510674401685011</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4323925834539165</v>
+        <v>-0.432393996844127</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999959828974789</v>
+        <v>0.9999988143479632</v>
       </c>
     </row>
     <row r="6">
@@ -2087,19 +2087,19 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4006519051095231</v>
+        <v>0.4006514224058111</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5993485010346</v>
+        <v>0.5993485175815935</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4900289124571287</v>
+        <v>-0.4900299982375717</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999972448481449</v>
+        <v>0.9999990061484825</v>
       </c>
     </row>
     <row r="7">
@@ -2107,19 +2107,19 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5798928673538779</v>
+        <v>0.5798926840092463</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4201071576441872</v>
+        <v>0.4201071393429187</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4935754903954623</v>
+        <v>-0.4935748392447155</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999992909500226</v>
+        <v>0.9999977773652317</v>
       </c>
     </row>
     <row r="8">
@@ -2127,19 +2127,19 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7469526108688559</v>
+        <v>0.7469427910431167</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2530472845091397</v>
+        <v>0.2530570256931055</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4346097085343356</v>
+        <v>-0.4345925220337754</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9997423285858503</v>
+        <v>0.9997027117592772</v>
       </c>
     </row>
     <row r="9">
@@ -2147,19 +2147,19 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8749988923054343</v>
+        <v>0.8749941805421306</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1250011303305274</v>
+        <v>0.1250057137204484</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3288897868446408</v>
+        <v>-0.3288854323766555</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.997585327901073</v>
+        <v>0.9975724997045127</v>
       </c>
     </row>
     <row r="10">
@@ -2167,19 +2167,19 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9635598982079948</v>
+        <v>0.9635531694498825</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03644018136469517</v>
+        <v>0.03644665391743795</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1786957333112875</v>
+        <v>-0.1786939995924213</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9936398944598108</v>
+        <v>0.993626159919364</v>
       </c>
     </row>
     <row r="11">
@@ -2187,19 +2187,19 @@
         <v>45</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9950894009722699</v>
+        <v>0.9950591732788098</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004911038213265518</v>
+        <v>0.004939856149728473</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.007874139163917023</v>
+        <v>-0.007873805998121776</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9903510383588288</v>
+        <v>0.9902911541468804</v>
       </c>
     </row>
     <row r="12">
@@ -2207,19 +2207,19 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9684668929003352</v>
+        <v>0.9684770894454607</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03153298701405844</v>
+        <v>0.03152252480186451</v>
       </c>
       <c r="D12" t="n">
-        <v>0.160038701472048</v>
+        <v>0.1600542189035924</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9901472238517766</v>
+        <v>0.9901762483283132</v>
       </c>
     </row>
     <row r="13">
@@ -2227,19 +2227,19 @@
         <v>55</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8860815516606284</v>
+        <v>0.8860841728090625</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1139185069612994</v>
+        <v>0.1139146116429969</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3115824374782751</v>
+        <v>0.3115897579844519</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9922851731114052</v>
+        <v>0.9922980546101139</v>
       </c>
     </row>
     <row r="14">
@@ -2247,19 +2247,19 @@
         <v>60</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7598583437729597</v>
+        <v>0.75985742485033</v>
       </c>
       <c r="C14" t="n">
-        <v>0.240141654066944</v>
+        <v>0.2401402296973314</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4235250518694544</v>
+        <v>0.4235264435639074</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9937996557414414</v>
+        <v>0.9937999328150453</v>
       </c>
     </row>
     <row r="15">
@@ -2267,19 +2267,19 @@
         <v>65</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5938154400749823</v>
+        <v>0.593813246850096</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4061846162554529</v>
+        <v>0.4061859739727988</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4884871092788996</v>
+        <v>0.4884779000771033</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9948420312173456</v>
+        <v>0.9948225353143573</v>
       </c>
     </row>
     <row r="16">
@@ -2287,19 +2287,19 @@
         <v>70</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4101135175923994</v>
+        <v>0.4101133045185692</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5898867049572349</v>
+        <v>0.5898855504171696</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4891098270750975</v>
+        <v>0.4891069112045925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9946162678801789</v>
+        <v>0.994609026310302</v>
       </c>
     </row>
     <row r="17">
@@ -2307,19 +2307,19 @@
         <v>75</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2627534397818948</v>
+        <v>0.2627486394370007</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7372465756407056</v>
+        <v>0.7372511713545431</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4373131198750824</v>
+        <v>0.4373213633717651</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9950574130409209</v>
+        <v>0.9950760869123196</v>
       </c>
     </row>
     <row r="18">
@@ -2327,19 +2327,19 @@
         <v>80</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1273358720628602</v>
+        <v>0.1273317042731336</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8726641438642255</v>
+        <v>0.8726682791587737</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3306994357323851</v>
+        <v>0.3307027536306831</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9964813658877267</v>
+        <v>0.9964919108808685</v>
       </c>
     </row>
     <row r="19">
@@ -2347,19 +2347,19 @@
         <v>85</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03864335819542286</v>
+        <v>0.03866649991520531</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9613566552656744</v>
+        <v>0.9613334570711504</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1889503866152527</v>
+        <v>0.1889408060268437</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9971044249603314</v>
+        <v>0.9970543702642086</v>
       </c>
     </row>
     <row r="20">
@@ -2367,19 +2367,19 @@
         <v>90</v>
       </c>
       <c r="B20" t="n">
-        <v>0.001059429823470423</v>
+        <v>0.001070235027908468</v>
       </c>
       <c r="C20" t="n">
-        <v>0.998940570739852</v>
+        <v>0.9989295806422855</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01119670036113816</v>
+        <v>0.0111968014252675</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9981341184595662</v>
+        <v>0.9981121892095012</v>
       </c>
     </row>
   </sheetData>

--- a/HWP_polarimeter_high.xlsx
+++ b/HWP_polarimeter_high.xlsx
@@ -2007,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0007150496812154841</v>
+        <v>0.0006286564547691489</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9992846183408213</v>
+        <v>0.9993713435452308</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001386634363100751</v>
+        <v>0.001386874758935722</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9985741052583214</v>
+        <v>0.9987473243515319</v>
       </c>
     </row>
     <row r="3">
@@ -2027,19 +2027,19 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02715843561308316</v>
+        <v>0.02715173135580246</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9728411201674454</v>
+        <v>0.9728482686441978</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1625183114191731</v>
+        <v>-0.1625206920516841</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999818288066786</v>
+        <v>0.9999969210095476</v>
       </c>
     </row>
     <row r="4">
@@ -2047,19 +2047,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1148315126476582</v>
+        <v>0.1148312922918648</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8851683406277803</v>
+        <v>0.885168707708135</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.31881726601589</v>
+        <v>-0.3188175091365351</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999981657663808</v>
+        <v>0.9999990750591589</v>
       </c>
     </row>
     <row r="5">
@@ -2067,19 +2067,19 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2489324760914501</v>
+        <v>0.2489439104277788</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7510674401685011</v>
+        <v>0.7510560895722211</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.432393996844127</v>
+        <v>-0.4323743764854919</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999988143479632</v>
+        <v>0.9999535231050259</v>
       </c>
     </row>
     <row r="6">
@@ -2087,19 +2087,19 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4006514224058111</v>
+        <v>0.4006548666326326</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5993485175815935</v>
+        <v>0.5993451333673677</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4900299982375717</v>
+        <v>-0.4900131578255292</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999990061484825</v>
+        <v>0.9999647007318544</v>
       </c>
     </row>
     <row r="7">
@@ -2107,19 +2107,19 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5798926840092463</v>
+        <v>0.5798928375203192</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4201071393429187</v>
+        <v>0.4201071624796812</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4935748392447155</v>
+        <v>-0.493575241968748</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999977773652317</v>
+        <v>0.9999987699431129</v>
       </c>
     </row>
     <row r="8">
@@ -2127,19 +2127,19 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7469427910431167</v>
+        <v>0.7469422648040178</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2530570256931055</v>
+        <v>0.2530577351959826</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4345925220337754</v>
+        <v>-0.4345914346482709</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9997027117592772</v>
+        <v>0.9997003944323601</v>
       </c>
     </row>
     <row r="9">
@@ -2147,19 +2147,19 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8749941805421306</v>
+        <v>0.8750790369679547</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1250057137204484</v>
+        <v>0.1249209630320456</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3288854323766555</v>
+        <v>-0.3289598085991766</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9975724997045127</v>
+        <v>0.9977976792928306</v>
       </c>
     </row>
     <row r="10">
@@ -2167,19 +2167,19 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9635531694498825</v>
+        <v>0.9635477431535681</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03644665391743795</v>
+        <v>0.03645225684643227</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1786939995924213</v>
+        <v>-0.1786918737780192</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.993626159919364</v>
+        <v>0.9936145918741317</v>
       </c>
     </row>
     <row r="11">
@@ -2187,19 +2187,19 @@
         <v>45</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9950591732788098</v>
+        <v>0.9950626664644819</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004939856149728473</v>
+        <v>0.004937333535518252</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.007873805998121776</v>
+        <v>-0.00787385383805409</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9902911541468804</v>
+        <v>0.990298082602372</v>
       </c>
     </row>
     <row r="12">
@@ -2207,19 +2207,19 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9684770894454607</v>
+        <v>0.9684717238941848</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03152252480186451</v>
+        <v>0.03152827610581523</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1600542189035924</v>
+        <v>0.1600523198791924</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9901762483283132</v>
+        <v>0.9901650023742012</v>
       </c>
     </row>
     <row r="13">
@@ -2227,19 +2227,19 @@
         <v>55</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8860841728090625</v>
+        <v>0.8860900055887514</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1139146116429969</v>
+        <v>0.1139099944112485</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3115897579844519</v>
+        <v>0.3115939748258018</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9922980546101139</v>
+        <v>0.9923125951265289</v>
       </c>
     </row>
     <row r="14">
@@ -2247,19 +2247,19 @@
         <v>60</v>
       </c>
       <c r="B14" t="n">
-        <v>0.75985742485033</v>
+        <v>0.7598579659702366</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2401402296973314</v>
+        <v>0.2401420340297638</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4235264435639074</v>
+        <v>0.423525414150385</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9937999328150453</v>
+        <v>0.9937998778188878</v>
       </c>
     </row>
     <row r="15">
@@ -2267,19 +2267,19 @@
         <v>65</v>
       </c>
       <c r="B15" t="n">
-        <v>0.593813246850096</v>
+        <v>0.5938113397976904</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4061859739727988</v>
+        <v>0.40618866020231</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4884779000771033</v>
+        <v>0.4884659417052157</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9948225353143573</v>
+        <v>0.9947990873612024</v>
       </c>
     </row>
     <row r="16">
@@ -2287,19 +2287,19 @@
         <v>70</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4101133045185692</v>
+        <v>0.4101144289561457</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5898855504171696</v>
+        <v>0.5898855710438542</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4891069112045925</v>
+        <v>0.4891039080628493</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.994609026310302</v>
+        <v>0.9946040975284638</v>
       </c>
     </row>
     <row r="17">
@@ -2307,19 +2307,19 @@
         <v>75</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2627486394370007</v>
+        <v>0.2627366413800191</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7372511713545431</v>
+        <v>0.7372633586199808</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4373213633717651</v>
+        <v>0.437343653575637</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9950760869123196</v>
+        <v>0.9951267453330408</v>
       </c>
     </row>
     <row r="18">
@@ -2327,19 +2327,19 @@
         <v>80</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1273317042731336</v>
+        <v>0.1272453066114806</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8726682791587737</v>
+        <v>0.8727546933885194</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3307027536306831</v>
+        <v>0.3307794295516985</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9964919108808685</v>
+        <v>0.9967221849154324</v>
       </c>
     </row>
     <row r="19">
@@ -2347,19 +2347,19 @@
         <v>85</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03866649991520531</v>
+        <v>0.03862173732219647</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9613334570711504</v>
+        <v>0.9613782626778038</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1889408060268437</v>
+        <v>0.1889591475180042</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9970543702642086</v>
+        <v>0.9971509214046388</v>
       </c>
     </row>
     <row r="20">
@@ -2367,19 +2367,19 @@
         <v>90</v>
       </c>
       <c r="B20" t="n">
-        <v>0.001070235027908468</v>
+        <v>0.00115141080501225</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9989295806422855</v>
+        <v>0.9988485891949875</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0111968014252675</v>
+        <v>0.01119498177581751</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9981121892095012</v>
+        <v>0.9979504851175806</v>
       </c>
     </row>
   </sheetData>

--- a/HWP_polarimeter_high.xlsx
+++ b/HWP_polarimeter_high.xlsx
@@ -2007,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0006286564547691489</v>
+        <v>0.0006286564547857559</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9993713435452308</v>
+        <v>0.9993713435452143</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001386874758935722</v>
+        <v>0.001386874758935917</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9987473243515319</v>
+        <v>0.9987473243514988</v>
       </c>
     </row>
     <row r="3">
@@ -2027,19 +2027,19 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02715173135580246</v>
+        <v>0.02715173135579876</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9728482686441978</v>
+        <v>0.9728482686442013</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1625206920516841</v>
+        <v>-0.1625206920516857</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999969210095476</v>
+        <v>0.9999969210095552</v>
       </c>
     </row>
     <row r="4">
@@ -2047,19 +2047,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1148312922918648</v>
+        <v>0.114831292291872</v>
       </c>
       <c r="C4" t="n">
-        <v>0.885168707708135</v>
+        <v>0.8851687077081279</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3188175091365351</v>
+        <v>-0.3188175091365271</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999990750591589</v>
+        <v>0.9999990750591378</v>
       </c>
     </row>
     <row r="5">
@@ -2067,19 +2067,19 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2489439104277788</v>
+        <v>0.2489439104277862</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7510560895722211</v>
+        <v>0.7510560895722136</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4323743764854919</v>
+        <v>-0.4323743764854789</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999535231050259</v>
+        <v>0.9999535231049959</v>
       </c>
     </row>
     <row r="6">
@@ -2087,19 +2087,19 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4006548666326326</v>
+        <v>0.4006548666326321</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5993451333673677</v>
+        <v>0.5993451333673681</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4900131578255292</v>
+        <v>-0.4900131578255314</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999647007318544</v>
+        <v>0.9999647007318587</v>
       </c>
     </row>
     <row r="7">
@@ -2107,19 +2107,19 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5798928375203192</v>
+        <v>0.5798928375203188</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4201071624796812</v>
+        <v>0.4201071624796815</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.493575241968748</v>
+        <v>-0.4935752419687473</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999987699431129</v>
+        <v>0.9999987699431113</v>
       </c>
     </row>
     <row r="8">
@@ -2127,19 +2127,19 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7469422648040178</v>
+        <v>0.7469422648042503</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2530577351959826</v>
+        <v>0.2530577351957501</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4345914346482709</v>
+        <v>-0.4345914346486809</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9997003944323601</v>
+        <v>0.9997003944333026</v>
       </c>
     </row>
     <row r="9">
@@ -2147,19 +2147,19 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8750790369679547</v>
+        <v>0.8750790369679513</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1249209630320456</v>
+        <v>0.124920963032049</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3289598085991766</v>
+        <v>-0.3289598085991736</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9977976792928306</v>
+        <v>0.9977976792928215</v>
       </c>
     </row>
     <row r="10">
@@ -2167,19 +2167,19 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9635477431535681</v>
+        <v>0.963547743153921</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03645225684643227</v>
+        <v>0.03645225684607924</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1786918737780192</v>
+        <v>-0.1786918737781553</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9936145918741317</v>
+        <v>0.9936145918748833</v>
       </c>
     </row>
     <row r="11">
@@ -2187,19 +2187,19 @@
         <v>45</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9950626664644819</v>
+        <v>0.995062666464593</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004937333535518252</v>
+        <v>0.004937333535407447</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.00787385383805409</v>
+        <v>-0.007873853838056</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.990298082602372</v>
+        <v>0.9902980826025918</v>
       </c>
     </row>
     <row r="12">
@@ -2207,19 +2207,19 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9684717238941848</v>
+        <v>0.968471723894192</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03152827610581523</v>
+        <v>0.03152827610580843</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1600523198791924</v>
+        <v>0.1600523198791948</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9901650023742012</v>
+        <v>0.9901650023742162</v>
       </c>
     </row>
     <row r="13">
@@ -2227,19 +2227,19 @@
         <v>55</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8860900055887514</v>
+        <v>0.8860900055887571</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1139099944112485</v>
+        <v>0.1139099944112429</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3115939748258018</v>
+        <v>0.3115939748258063</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9923125951265289</v>
+        <v>0.9923125951265435</v>
       </c>
     </row>
     <row r="14">
@@ -2247,19 +2247,19 @@
         <v>60</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7598579659702366</v>
+        <v>0.7598579659702374</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2401420340297638</v>
+        <v>0.2401420340297628</v>
       </c>
       <c r="D14" t="n">
-        <v>0.423525414150385</v>
+        <v>0.4235254141503863</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9937998778188878</v>
+        <v>0.9937998778188906</v>
       </c>
     </row>
     <row r="15">
@@ -2267,19 +2267,19 @@
         <v>65</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5938113397976904</v>
+        <v>0.5938113397976951</v>
       </c>
       <c r="C15" t="n">
-        <v>0.40618866020231</v>
+        <v>0.4061886602023049</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4884659417052157</v>
+        <v>0.4884659417052409</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9947990873612024</v>
+        <v>0.9947990873612529</v>
       </c>
     </row>
     <row r="16">
@@ -2287,19 +2287,19 @@
         <v>70</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4101144289561457</v>
+        <v>0.4101144289561333</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5898855710438542</v>
+        <v>0.5898855710438667</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4891039080628493</v>
+        <v>0.4891039080629174</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9946040975284638</v>
+        <v>0.9946040975286016</v>
       </c>
     </row>
     <row r="17">
@@ -2307,19 +2307,19 @@
         <v>75</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2627366413800191</v>
+        <v>0.2627366413800186</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7372633586199808</v>
+        <v>0.7372633586199814</v>
       </c>
       <c r="D17" t="n">
-        <v>0.437343653575637</v>
+        <v>0.4373436535756375</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9951267453330408</v>
+        <v>0.9951267453330424</v>
       </c>
     </row>
     <row r="18">
@@ -2327,19 +2327,19 @@
         <v>80</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1272453066114806</v>
+        <v>0.1272453066114258</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8727546933885194</v>
+        <v>0.8727546933885746</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3307794295516985</v>
+        <v>0.3307794295517473</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9967221849154324</v>
+        <v>0.9967221849155792</v>
       </c>
     </row>
     <row r="19">
@@ -2347,19 +2347,19 @@
         <v>85</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03862173732219647</v>
+        <v>0.03862173732239964</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9613782626778038</v>
+        <v>0.9613782626776005</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1889591475180042</v>
+        <v>0.1889591475179207</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9971509214046388</v>
+        <v>0.9971509214042005</v>
       </c>
     </row>
     <row r="20">
@@ -2367,19 +2367,19 @@
         <v>90</v>
       </c>
       <c r="B20" t="n">
-        <v>0.00115141080501225</v>
+        <v>0.001151410805023635</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9988485891949875</v>
+        <v>0.9988485891949763</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01119498177581751</v>
+        <v>0.01119498177581732</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9979504851175806</v>
+        <v>0.9979504851175584</v>
       </c>
     </row>
   </sheetData>

--- a/HWP_polarimeter_high.xlsx
+++ b/HWP_polarimeter_high.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="false" showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="true"/>
   </bookViews>
   <sheets>
     <sheet name="measured" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,10 +12,34 @@
     <sheet name="Adjusted" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Adjusted2" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="rho" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="rho_mat" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="true"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="6">
+  <si>
+    <t>theta</t>
+  </si>
+  <si>
+    <t>Jxx</t>
+  </si>
+  <si>
+    <t>Jyy</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>trace_sq</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30,7 +54,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -41,7 +65,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -56,20 +80,52 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="false" pivotButton="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="false" pivotButton="false" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="false"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -357,9 +413,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:E20"/>
@@ -721,14 +777,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:E20"/>
@@ -1090,14 +1146,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:F20"/>
@@ -1521,14 +1577,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:F20"/>
@@ -1952,14 +2008,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:F20"/>
@@ -2007,19 +2063,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0006286564547691489</v>
+        <v>0.0006286564547857559</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9993713435452308</v>
+        <v>0.9993713435452143</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001386874758935722</v>
+        <v>0.001386874758935917</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9987473243515319</v>
+        <v>0.9987473243514988</v>
       </c>
     </row>
     <row r="3">
@@ -2027,19 +2083,19 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02715173135580246</v>
+        <v>0.02715173135579876</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9728482686441978</v>
+        <v>0.9728482686442013</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1625206920516841</v>
+        <v>-0.1625206920516857</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999969210095476</v>
+        <v>0.9999969210095552</v>
       </c>
     </row>
     <row r="4">
@@ -2047,19 +2103,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1148312922918648</v>
+        <v>0.114831292291872</v>
       </c>
       <c r="C4" t="n">
-        <v>0.885168707708135</v>
+        <v>0.8851687077081279</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3188175091365351</v>
+        <v>-0.3188175091365271</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999990750591589</v>
+        <v>0.9999990750591378</v>
       </c>
     </row>
     <row r="5">
@@ -2067,19 +2123,19 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2489439104277788</v>
+        <v>0.2489439104277862</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7510560895722211</v>
+        <v>0.7510560895722136</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4323743764854919</v>
+        <v>-0.4323743764854789</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999535231050259</v>
+        <v>0.9999535231049959</v>
       </c>
     </row>
     <row r="6">
@@ -2087,19 +2143,19 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4006548666326326</v>
+        <v>0.4006548666326321</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5993451333673677</v>
+        <v>0.5993451333673681</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4900131578255292</v>
+        <v>-0.4900131578255314</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999647007318544</v>
+        <v>0.9999647007318587</v>
       </c>
     </row>
     <row r="7">
@@ -2107,19 +2163,19 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5798928375203192</v>
+        <v>0.5798928375203188</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4201071624796812</v>
+        <v>0.4201071624796815</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.493575241968748</v>
+        <v>-0.4935752419687473</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999987699431129</v>
+        <v>0.9999987699431113</v>
       </c>
     </row>
     <row r="8">
@@ -2127,19 +2183,19 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7469422648040178</v>
+        <v>0.7469422648042503</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2530577351959826</v>
+        <v>0.2530577351957501</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4345914346482709</v>
+        <v>-0.4345914346486809</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9997003944323601</v>
+        <v>0.9997003944333026</v>
       </c>
     </row>
     <row r="9">
@@ -2147,19 +2203,19 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8750790369679547</v>
+        <v>0.8750790369679513</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1249209630320456</v>
+        <v>0.124920963032049</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3289598085991766</v>
+        <v>-0.3289598085991736</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9977976792928306</v>
+        <v>0.9977976792928215</v>
       </c>
     </row>
     <row r="10">
@@ -2167,19 +2223,19 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9635477431535681</v>
+        <v>0.963547743153921</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03645225684643227</v>
+        <v>0.03645225684607924</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1786918737780192</v>
+        <v>-0.1786918737781553</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9936145918741317</v>
+        <v>0.9936145918748833</v>
       </c>
     </row>
     <row r="11">
@@ -2187,19 +2243,19 @@
         <v>45</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9950626664644819</v>
+        <v>0.995062666464593</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004937333535518252</v>
+        <v>0.004937333535407447</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.00787385383805409</v>
+        <v>-0.007873853838056</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.990298082602372</v>
+        <v>0.9902980826025918</v>
       </c>
     </row>
     <row r="12">
@@ -2207,19 +2263,19 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9684717238941848</v>
+        <v>0.968471723894192</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03152827610581523</v>
+        <v>0.03152827610580843</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1600523198791924</v>
+        <v>0.1600523198791948</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9901650023742012</v>
+        <v>0.9901650023742162</v>
       </c>
     </row>
     <row r="13">
@@ -2227,19 +2283,19 @@
         <v>55</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8860900055887514</v>
+        <v>0.8860900055887571</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1139099944112485</v>
+        <v>0.1139099944112429</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3115939748258018</v>
+        <v>0.3115939748258063</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9923125951265289</v>
+        <v>0.9923125951265435</v>
       </c>
     </row>
     <row r="14">
@@ -2247,19 +2303,19 @@
         <v>60</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7598579659702366</v>
+        <v>0.7598579659702374</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2401420340297638</v>
+        <v>0.2401420340297628</v>
       </c>
       <c r="D14" t="n">
-        <v>0.423525414150385</v>
+        <v>0.4235254141503863</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9937998778188878</v>
+        <v>0.9937998778188906</v>
       </c>
     </row>
     <row r="15">
@@ -2267,19 +2323,19 @@
         <v>65</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5938113397976904</v>
+        <v>0.5938113397976951</v>
       </c>
       <c r="C15" t="n">
-        <v>0.40618866020231</v>
+        <v>0.4061886602023049</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4884659417052157</v>
+        <v>0.4884659417052409</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9947990873612024</v>
+        <v>0.9947990873612529</v>
       </c>
     </row>
     <row r="16">
@@ -2287,19 +2343,19 @@
         <v>70</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4101144289561457</v>
+        <v>0.4101144289561333</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5898855710438542</v>
+        <v>0.5898855710438667</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4891039080628493</v>
+        <v>0.4891039080629174</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9946040975284638</v>
+        <v>0.9946040975286016</v>
       </c>
     </row>
     <row r="17">
@@ -2307,19 +2363,19 @@
         <v>75</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2627366413800191</v>
+        <v>0.2627366413800186</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7372633586199808</v>
+        <v>0.7372633586199814</v>
       </c>
       <c r="D17" t="n">
-        <v>0.437343653575637</v>
+        <v>0.4373436535756375</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9951267453330408</v>
+        <v>0.9951267453330424</v>
       </c>
     </row>
     <row r="18">
@@ -2327,19 +2383,19 @@
         <v>80</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1272453066114806</v>
+        <v>0.1272453066114258</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8727546933885194</v>
+        <v>0.8727546933885746</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3307794295516985</v>
+        <v>0.3307794295517473</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9967221849154324</v>
+        <v>0.9967221849155792</v>
       </c>
     </row>
     <row r="19">
@@ -2347,19 +2403,19 @@
         <v>85</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03862173732219647</v>
+        <v>0.03862173732239964</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9613782626778038</v>
+        <v>0.9613782626776005</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1889591475180042</v>
+        <v>0.1889591475179207</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9971509214046388</v>
+        <v>0.9971509214042005</v>
       </c>
     </row>
     <row r="20">
@@ -2367,22 +2423,439 @@
         <v>90</v>
       </c>
       <c r="B20" t="n">
-        <v>0.00115141080501225</v>
+        <v>0.001151410805023635</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9988485891949875</v>
+        <v>0.9988485891949763</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01119498177581751</v>
+        <v>0.01119498177581732</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9979504851175806</v>
+        <v>0.9979504851175584</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F20"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="14.7109375" customWidth="true"/>
+    <col min="4" max="4" width="15.42578125" customWidth="true"/>
+    <col min="5" max="5" width="15.42578125" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.00068870610249591527</v>
+      </c>
+      <c r="C2">
+        <v>0.99931129384556838</v>
+      </c>
+      <c r="D2">
+        <v>0.0013867079890903318</v>
+      </c>
+      <c r="E2">
+        <v>-0.01921487603378963</v>
+      </c>
+      <c r="F2">
+        <v>0.99999999989612864</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.027582734300152914</v>
+      </c>
+      <c r="C3">
+        <v>0.97241726576063692</v>
+      </c>
+      <c r="D3">
+        <v>-0.16265060108237966</v>
+      </c>
+      <c r="E3">
+        <v>-0.019149598239035823</v>
+      </c>
+      <c r="F3">
+        <v>1.0000000001215796</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0.11568430894261565</v>
+      </c>
+      <c r="C4">
+        <v>0.88431569106317931</v>
+      </c>
+      <c r="D4">
+        <v>-0.31926909941774656</v>
+      </c>
+      <c r="E4">
+        <v>-0.01920132868857178</v>
+      </c>
+      <c r="F4">
+        <v>1.0000000000115898</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.24850299434480241</v>
+      </c>
+      <c r="C5">
+        <v>0.75149700566116429</v>
+      </c>
+      <c r="D5">
+        <v>-0.43171929367324263</v>
+      </c>
+      <c r="E5">
+        <v>-0.019175697751579596</v>
+      </c>
+      <c r="F5">
+        <v>1.0000000000119336</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>0.40047074737025057</v>
+      </c>
+      <c r="C6">
+        <v>0.59952925281080427</v>
+      </c>
+      <c r="D6">
+        <v>-0.48961637046129924</v>
+      </c>
+      <c r="E6">
+        <v>-0.019228509214710927</v>
+      </c>
+      <c r="F6">
+        <v>1.0000000003621095</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>0.57999999936688562</v>
+      </c>
+      <c r="C7">
+        <v>0.42000000076667343</v>
+      </c>
+      <c r="D7">
+        <v>-0.49322467574212647</v>
+      </c>
+      <c r="E7">
+        <v>-0.018149856179201715</v>
+      </c>
+      <c r="F7">
+        <v>1.0000000002671179</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>0.74696765443821811</v>
+      </c>
+      <c r="C8">
+        <v>0.25303234557389892</v>
+      </c>
+      <c r="D8">
+        <v>-0.43443445974624811</v>
+      </c>
+      <c r="E8">
+        <v>-0.016543196873619249</v>
+      </c>
+      <c r="F8">
+        <v>1.0000000000242339</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>0.87500000012697909</v>
+      </c>
+      <c r="C9">
+        <v>0.12499999985224716</v>
+      </c>
+      <c r="D9">
+        <v>-0.32889049053620673</v>
+      </c>
+      <c r="E9">
+        <v>-0.014231268038173418</v>
+      </c>
+      <c r="F9">
+        <v>0.99999999995845257</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>0.9635599152224017</v>
+      </c>
+      <c r="C10">
+        <v>0.036440084757942068</v>
+      </c>
+      <c r="D10">
+        <v>-0.17869656677102361</v>
+      </c>
+      <c r="E10">
+        <v>-0.011947792607964313</v>
+      </c>
+      <c r="F10">
+        <v>0.99999999996068745</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>0.9950738910208734</v>
+      </c>
+      <c r="C11">
+        <v>0.0049261089708579715</v>
+      </c>
+      <c r="D11">
+        <v>-0.0078740323938980301</v>
+      </c>
+      <c r="E11">
+        <v>-0.0096604504143684121</v>
+      </c>
+      <c r="F11">
+        <v>0.99999999998346278</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>0.96848441881542913</v>
+      </c>
+      <c r="C12">
+        <v>0.031515581177811627</v>
+      </c>
+      <c r="D12">
+        <v>0.16005665747122616</v>
+      </c>
+      <c r="E12">
+        <v>-0.0078877478873751548</v>
+      </c>
+      <c r="F12">
+        <v>0.99999999998648148</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>0.88610315167648412</v>
+      </c>
+      <c r="C13">
+        <v>0.11389684831478192</v>
+      </c>
+      <c r="D13">
+        <v>0.31160458460344176</v>
+      </c>
+      <c r="E13">
+        <v>-0.0069659742136536605</v>
+      </c>
+      <c r="F13">
+        <v>0.9999999999825322</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>0.75987078277185627</v>
+      </c>
+      <c r="C14">
+        <v>0.24012921722015906</v>
+      </c>
+      <c r="D14">
+        <v>0.42354630240339725</v>
+      </c>
+      <c r="E14">
+        <v>-0.006872218225213245</v>
+      </c>
+      <c r="F14">
+        <v>0.99999999998403055</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>0.59381739772215381</v>
+      </c>
+      <c r="C15">
+        <v>0.40618260225926817</v>
+      </c>
+      <c r="D15">
+        <v>0.48849748342286731</v>
+      </c>
+      <c r="E15">
+        <v>-0.0076710999215998162</v>
+      </c>
+      <c r="F15">
+        <v>0.99999999996284394</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>70</v>
+      </c>
+      <c r="B16">
+        <v>0.41011235936701607</v>
+      </c>
+      <c r="C16">
+        <v>0.58988764061417165</v>
+      </c>
+      <c r="D16">
+        <v>0.48911516811458267</v>
+      </c>
+      <c r="E16">
+        <v>-0.0093135533624512448</v>
+      </c>
+      <c r="F16">
+        <v>0.99999999996237543</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>75</v>
+      </c>
+      <c r="B17">
+        <v>0.26274787510088637</v>
+      </c>
+      <c r="C17">
+        <v>0.73725212489079128</v>
+      </c>
+      <c r="D17">
+        <v>0.43732294583504405</v>
+      </c>
+      <c r="E17">
+        <v>-0.01216749290827043</v>
+      </c>
+      <c r="F17">
+        <v>0.99999999998335531</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <v>0.12733142047440971</v>
+      </c>
+      <c r="C18">
+        <v>0.87266857952106958</v>
+      </c>
+      <c r="D18">
+        <v>0.33070301320214179</v>
+      </c>
+      <c r="E18">
+        <v>-0.016172883801757135</v>
+      </c>
+      <c r="F18">
+        <v>0.99999999999095857</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>85</v>
+      </c>
+      <c r="B19">
+        <v>0.03865606949602142</v>
+      </c>
+      <c r="C19">
+        <v>0.96134393048520606</v>
+      </c>
+      <c r="D19">
+        <v>0.1889450870786426</v>
+      </c>
+      <c r="E19">
+        <v>-0.020236271715912087</v>
+      </c>
+      <c r="F19">
+        <v>0.99999999996245492</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>90</v>
+      </c>
+      <c r="B20">
+        <v>0.0010783615094225678</v>
+      </c>
+      <c r="C20">
+        <v>0.9989216384551679</v>
+      </c>
+      <c r="D20">
+        <v>0.011196621145449956</v>
+      </c>
+      <c r="E20">
+        <v>-0.02432710282396832</v>
+      </c>
+      <c r="F20">
+        <v>0.99999999992918087</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
--- a/HWP_polarimeter_high.xlsx
+++ b/HWP_polarimeter_high.xlsx
@@ -13,6 +13,7 @@
     <sheet name="Adjusted2" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="rho" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="rho_mat" sheetId="6" r:id="rId8"/>
+    <sheet name="rho_min" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="true"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="6">
   <si>
     <t>theta</t>
   </si>
@@ -65,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -96,11 +97,37 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="false" pivotButton="false"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="false" pivotButton="false" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
@@ -121,6 +148,32 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="false"/>
@@ -2451,28 +2504,445 @@
     <col min="1" max="1" width="5.85546875" customWidth="true"/>
     <col min="2" max="2" width="15.7109375" customWidth="true"/>
     <col min="3" max="3" width="14.7109375" customWidth="true"/>
+    <col min="4" max="4" width="14.7109375" customWidth="true"/>
+    <col min="5" max="5" width="15.42578125" customWidth="true"/>
+    <col min="6" max="6" width="8.5703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.00068870523506509669</v>
+      </c>
+      <c r="C2">
+        <v>0.99931129476493485</v>
+      </c>
+      <c r="D2">
+        <v>0.001386707988978206</v>
+      </c>
+      <c r="E2">
+        <v>-0.019214876033023062</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.027496138799420353</v>
+      </c>
+      <c r="C3">
+        <v>0.97250386120057963</v>
+      </c>
+      <c r="D3">
+        <v>-0.1624023172159556</v>
+      </c>
+      <c r="E3">
+        <v>-0.019120366643578367</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0.11511383853940015</v>
+      </c>
+      <c r="C4">
+        <v>0.88488616146059984</v>
+      </c>
+      <c r="D4">
+        <v>-0.31858363579985211</v>
+      </c>
+      <c r="E4">
+        <v>-0.019160103865439489</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.24911725359377596</v>
+      </c>
+      <c r="C5">
+        <v>0.7508827464062241</v>
+      </c>
+      <c r="D5">
+        <v>-0.43207584103295232</v>
+      </c>
+      <c r="E5">
+        <v>-0.019191534533621973</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>0.40072486777321276</v>
+      </c>
+      <c r="C6">
+        <v>0.59927513222678719</v>
+      </c>
+      <c r="D6">
+        <v>-0.48966788192943894</v>
+      </c>
+      <c r="E6">
+        <v>-0.019230532201417412</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>0.5798402766746652</v>
+      </c>
+      <c r="C7">
+        <v>0.42015972332533474</v>
+      </c>
+      <c r="D7">
+        <v>-0.49325052284610688</v>
+      </c>
+      <c r="E7">
+        <v>-0.018150807305716346</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>0.7468810100595199</v>
+      </c>
+      <c r="C8">
+        <v>0.25311898994048004</v>
+      </c>
+      <c r="D8">
+        <v>-0.43448363298349113</v>
+      </c>
+      <c r="E8">
+        <v>-0.016545069382198737</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>0.87500000000196831</v>
+      </c>
+      <c r="C9">
+        <v>0.1249999999980317</v>
+      </c>
+      <c r="D9">
+        <v>-0.32889048991527131</v>
+      </c>
+      <c r="E9">
+        <v>-0.014231268011602098</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>0.96355991585365586</v>
+      </c>
+      <c r="C10">
+        <v>0.036440084146344219</v>
+      </c>
+      <c r="D10">
+        <v>-0.17869656620208943</v>
+      </c>
+      <c r="E10">
+        <v>-0.011947792570441268</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>0.99507389149821646</v>
+      </c>
+      <c r="C11">
+        <v>0.0049261085017834943</v>
+      </c>
+      <c r="D11">
+        <v>-0.0078740323695430641</v>
+      </c>
+      <c r="E11">
+        <v>-0.0096604503845654065</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>0.96848441913951822</v>
+      </c>
+      <c r="C12">
+        <v>0.031515580860481722</v>
+      </c>
+      <c r="D12">
+        <v>0.16005665718145295</v>
+      </c>
+      <c r="E12">
+        <v>-0.0078877478732674016</v>
+      </c>
+      <c r="F12">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>0.8861031517931941</v>
+      </c>
+      <c r="C13">
+        <v>0.11389684820680593</v>
+      </c>
+      <c r="D13">
+        <v>0.31160458447131673</v>
+      </c>
+      <c r="E13">
+        <v>-0.00696597421078463</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>0.75987078245385364</v>
+      </c>
+      <c r="C14">
+        <v>0.2401292175461463</v>
+      </c>
+      <c r="D14">
+        <v>0.4235463028944022</v>
+      </c>
+      <c r="E14">
+        <v>-0.0068722182332340868</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>0.59381739754893259</v>
+      </c>
+      <c r="C15">
+        <v>0.40618260245106741</v>
+      </c>
+      <c r="D15">
+        <v>0.4884974837892716</v>
+      </c>
+      <c r="E15">
+        <v>-0.007671099927554696</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>70</v>
+      </c>
+      <c r="B16">
+        <v>0.41011235955766734</v>
+      </c>
+      <c r="C16">
+        <v>0.58988764044233266</v>
+      </c>
+      <c r="D16">
+        <v>0.48911516850066322</v>
+      </c>
+      <c r="E16">
+        <v>-0.0093135533700503172</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>75</v>
+      </c>
+      <c r="B17">
+        <v>0.26274787536844768</v>
+      </c>
+      <c r="C17">
+        <v>0.73725212463155221</v>
+      </c>
+      <c r="D17">
+        <v>0.43732294614920486</v>
+      </c>
+      <c r="E17">
+        <v>-0.012167492917111587</v>
+      </c>
+      <c r="F17">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <v>0.12733142037799092</v>
+      </c>
+      <c r="C18">
+        <v>0.87266857962200906</v>
+      </c>
+      <c r="D18">
+        <v>0.33070301290807708</v>
+      </c>
+      <c r="E18">
+        <v>-0.016172883787445979</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>85</v>
+      </c>
+      <c r="B19">
+        <v>0.038656069362343747</v>
+      </c>
+      <c r="C19">
+        <v>0.96134393063765622</v>
+      </c>
+      <c r="D19">
+        <v>0.18894508670594665</v>
+      </c>
+      <c r="E19">
+        <v>-0.020236271676380351</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>90</v>
+      </c>
+      <c r="B20">
+        <v>0.0010783608919168739</v>
+      </c>
+      <c r="C20">
+        <v>0.99892163910808307</v>
+      </c>
+      <c r="D20">
+        <v>0.01119662113586291</v>
+      </c>
+      <c r="E20">
+        <v>-0.024327102803715292</v>
+      </c>
+      <c r="F20">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F20"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="14.7109375" customWidth="true"/>
     <col min="4" max="4" width="15.42578125" customWidth="true"/>
     <col min="5" max="5" width="15.42578125" customWidth="true"/>
     <col min="6" max="6" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="36" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2481,19 +2951,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.00068870610249591527</v>
+        <v>0.00059532557543083401</v>
       </c>
       <c r="C2">
-        <v>0.99931129384556838</v>
+        <v>0.99921129988153923</v>
       </c>
       <c r="D2">
-        <v>0.0013867079890903318</v>
+        <v>0.001386698802941624</v>
       </c>
       <c r="E2">
-        <v>-0.01921487603378963</v>
+        <v>-0.019214748746993447</v>
       </c>
       <c r="F2">
-        <v>0.99999999989612864</v>
+        <v>0.99961328830765406</v>
       </c>
     </row>
     <row r="3">
@@ -2501,19 +2971,19 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.027582734300152914</v>
+        <v>0.027258482758001829</v>
       </c>
       <c r="C3">
-        <v>0.97241726576063692</v>
+        <v>0.97321295403075514</v>
       </c>
       <c r="D3">
-        <v>-0.16265060108237966</v>
+        <v>-0.16256501875478024</v>
       </c>
       <c r="E3">
-        <v>-0.019149598239035823</v>
+        <v>-0.019139522238950085</v>
       </c>
       <c r="F3">
-        <v>1.0000000001215796</v>
+        <v>1.0009430958301599</v>
       </c>
     </row>
     <row r="4">
@@ -2521,19 +2991,19 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.11568430894261565</v>
+        <v>0.11488863180378363</v>
       </c>
       <c r="C4">
-        <v>0.88431569106317931</v>
+        <v>0.8857630972643934</v>
       </c>
       <c r="D4">
-        <v>-0.31926909941774656</v>
+        <v>-0.31903977661833982</v>
       </c>
       <c r="E4">
-        <v>-0.01920132868857178</v>
+        <v>-0.019187536867256692</v>
       </c>
       <c r="F4">
-        <v>1.0000000000115898</v>
+        <v>1.0013038828871326</v>
       </c>
     </row>
     <row r="5">
@@ -2541,59 +3011,44 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.24850299434480241</v>
+        <v>0.24907592309965904</v>
       </c>
       <c r="C5">
-        <v>0.75149700566116429</v>
+        <v>0.75166339549316963</v>
       </c>
       <c r="D5">
-        <v>-0.43171929367324263</v>
+        <v>-0.43278365678344216</v>
       </c>
       <c r="E5">
-        <v>-0.019175697751579596</v>
+        <v>-0.019222973621692521</v>
       </c>
       <c r="F5">
-        <v>1.0000000000119336</v>
+        <v>1.0014791837776389</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
         <v>20</v>
       </c>
-      <c r="B6">
-        <v>0.40047074737025057</v>
-      </c>
-      <c r="C6">
-        <v>0.59952925281080427</v>
-      </c>
-      <c r="D6">
-        <v>-0.48961637046129924</v>
-      </c>
-      <c r="E6">
-        <v>-0.019228509214710927</v>
-      </c>
-      <c r="F6">
-        <v>1.0000000003621095</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7">
         <v>25</v>
       </c>
       <c r="B7">
-        <v>0.57999999936688562</v>
+        <v>0.58024989399197158</v>
       </c>
       <c r="C7">
-        <v>0.42000000076667343</v>
+        <v>0.42035745846768652</v>
       </c>
       <c r="D7">
-        <v>-0.49322467574212647</v>
+        <v>-0.49390502329331676</v>
       </c>
       <c r="E7">
-        <v>-0.018149856179201715</v>
+        <v>-0.018174891844810203</v>
       </c>
       <c r="F7">
-        <v>1.0000000002671179</v>
+        <v>1.0012150737963266</v>
       </c>
     </row>
     <row r="8">
@@ -2601,19 +3056,19 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>0.74696765443821811</v>
+        <v>0.7469950892284698</v>
       </c>
       <c r="C8">
-        <v>0.25303234557389892</v>
+        <v>0.25313770985514916</v>
       </c>
       <c r="D8">
-        <v>-0.43443445974624811</v>
+        <v>-0.43456754392317826</v>
       </c>
       <c r="E8">
-        <v>-0.016543196873619249</v>
+        <v>-0.016548264697781381</v>
       </c>
       <c r="F8">
-        <v>1.0000000000242339</v>
+        <v>1.0002656158028347</v>
       </c>
     </row>
     <row r="9">
@@ -2621,19 +3076,19 @@
         <v>35</v>
       </c>
       <c r="B9">
-        <v>0.87500000012697909</v>
+        <v>0.87490033091871122</v>
       </c>
       <c r="C9">
-        <v>0.12499999985224716</v>
+        <v>0.12490230688793751</v>
       </c>
       <c r="D9">
-        <v>-0.32889049053620673</v>
+        <v>-0.32888962341022915</v>
       </c>
       <c r="E9">
-        <v>-0.014231268038173418</v>
+        <v>-0.014231230517463877</v>
       </c>
       <c r="F9">
-        <v>0.99999999995845257</v>
+        <v>0.99960531456513269</v>
       </c>
     </row>
     <row r="10">
@@ -2641,19 +3096,19 @@
         <v>40</v>
       </c>
       <c r="B10">
-        <v>0.9635599152224017</v>
+        <v>0.96345991700538891</v>
       </c>
       <c r="C10">
-        <v>0.036440084757942068</v>
+        <v>0.036340111847509092</v>
       </c>
       <c r="D10">
-        <v>-0.17869656677102361</v>
+        <v>-0.17869656108485202</v>
       </c>
       <c r="E10">
-        <v>-0.011947792607964313</v>
+        <v>-0.011947792228298759</v>
       </c>
       <c r="F10">
-        <v>0.99999999996068745</v>
+        <v>0.99960009769425562</v>
       </c>
     </row>
     <row r="11">
@@ -2661,19 +3116,19 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.9950738910208734</v>
+        <v>0.99497389193019337</v>
       </c>
       <c r="C11">
-        <v>0.0049261089708579715</v>
+        <v>0.004826148731185277</v>
       </c>
       <c r="D11">
-        <v>-0.0078740323938980301</v>
+        <v>-0.0078740320530587792</v>
       </c>
       <c r="E11">
-        <v>-0.0096604504143684121</v>
+        <v>-0.0096604499962788734</v>
       </c>
       <c r="F11">
-        <v>0.99999999998346278</v>
+        <v>0.99960012130649434</v>
       </c>
     </row>
     <row r="12">
@@ -2681,19 +3136,19 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>0.96848441881542913</v>
+        <v>0.9683844205700699</v>
       </c>
       <c r="C12">
-        <v>0.031515581177811627</v>
+        <v>0.031415617909514706</v>
       </c>
       <c r="D12">
-        <v>0.16005665747122616</v>
+        <v>0.16005665109696557</v>
       </c>
       <c r="E12">
-        <v>-0.0078877478873751548</v>
+        <v>-0.0078877475734179421</v>
       </c>
       <c r="F12">
-        <v>0.99999999998648148</v>
+        <v>0.99960011694377893</v>
       </c>
     </row>
     <row r="13">
@@ -2701,19 +3156,19 @@
         <v>55</v>
       </c>
       <c r="B13">
-        <v>0.88610315167648412</v>
+        <v>0.88600317152673458</v>
       </c>
       <c r="C13">
-        <v>0.11389684831478192</v>
+        <v>0.11379699859648976</v>
       </c>
       <c r="D13">
-        <v>0.31160458460344176</v>
+        <v>0.31160453174829045</v>
       </c>
       <c r="E13">
-        <v>-0.0069659742136536605</v>
+        <v>-0.0069659730321522863</v>
       </c>
       <c r="F13">
-        <v>0.9999999999825322</v>
+        <v>0.99960038017842823</v>
       </c>
     </row>
     <row r="14">
@@ -2721,19 +3176,19 @@
         <v>60</v>
       </c>
       <c r="B14">
-        <v>0.75987078277185627</v>
+        <v>0.75977078945335774</v>
       </c>
       <c r="C14">
-        <v>0.24012921722015906</v>
+        <v>0.24002923946230667</v>
       </c>
       <c r="D14">
-        <v>0.42354630240339725</v>
+        <v>0.42354629073856365</v>
       </c>
       <c r="E14">
-        <v>-0.006872218225213245</v>
+        <v>-0.0068722180360004546</v>
       </c>
       <c r="F14">
-        <v>0.99999999998403055</v>
+        <v>0.99960009781976344</v>
       </c>
     </row>
     <row r="15">
@@ -2741,19 +3196,19 @@
         <v>65</v>
       </c>
       <c r="B15">
-        <v>0.59381739772215381</v>
+        <v>0.59371768301900896</v>
       </c>
       <c r="C15">
-        <v>0.40618260225926817</v>
+        <v>0.40608301838975952</v>
       </c>
       <c r="D15">
-        <v>0.48849748342286731</v>
+        <v>0.48849714412097939</v>
       </c>
       <c r="E15">
-        <v>-0.0076710999215998162</v>
+        <v>-0.0076710945935877907</v>
       </c>
       <c r="F15">
-        <v>0.99999999996284394</v>
+        <v>0.9996014425374653</v>
       </c>
     </row>
     <row r="16">
@@ -2761,19 +3216,19 @@
         <v>70</v>
       </c>
       <c r="B16">
-        <v>0.41011235936701607</v>
+        <v>0.41001301903334308</v>
       </c>
       <c r="C16">
-        <v>0.58988764061417165</v>
+        <v>0.5897881008444581</v>
       </c>
       <c r="D16">
-        <v>0.48911516811458267</v>
+        <v>0.48911462688063284</v>
       </c>
       <c r="E16">
-        <v>-0.0093135533624512448</v>
+        <v>-0.0093135430567184378</v>
       </c>
       <c r="F16">
-        <v>0.99999999996237543</v>
+        <v>0.99960227930890533</v>
       </c>
     </row>
     <row r="17">
@@ -2781,19 +3236,19 @@
         <v>75</v>
       </c>
       <c r="B17">
-        <v>0.26274787510088637</v>
+        <v>0.26264812892270406</v>
       </c>
       <c r="C17">
-        <v>0.73725212489079128</v>
+        <v>0.73715221547654441</v>
       </c>
       <c r="D17">
-        <v>0.43732294583504405</v>
+        <v>0.43732279618954706</v>
       </c>
       <c r="E17">
-        <v>-0.01216749290827043</v>
+        <v>-0.012167488744833206</v>
       </c>
       <c r="F17">
-        <v>0.99999999998335531</v>
+        <v>0.99960072866085581</v>
       </c>
     </row>
     <row r="18">
@@ -2801,19 +3256,19 @@
         <v>80</v>
       </c>
       <c r="B18">
-        <v>0.12733142047440971</v>
+        <v>0.12723485411551444</v>
       </c>
       <c r="C18">
-        <v>0.87266857952106958</v>
+        <v>0.87256908144792955</v>
       </c>
       <c r="D18">
-        <v>0.33070301320214179</v>
+        <v>0.33070171203103288</v>
       </c>
       <c r="E18">
-        <v>-0.016172883801757135</v>
+        <v>-0.016172820168632616</v>
       </c>
       <c r="F18">
-        <v>0.99999999999095857</v>
+        <v>0.99960790956815138</v>
       </c>
     </row>
     <row r="19">
@@ -2821,19 +3276,19 @@
         <v>85</v>
       </c>
       <c r="B19">
-        <v>0.03865606949602142</v>
+        <v>0.038558331935005158</v>
       </c>
       <c r="C19">
-        <v>0.96134393048520606</v>
+        <v>0.96124402297844691</v>
       </c>
       <c r="D19">
-        <v>0.1889450870786426</v>
+        <v>0.18894464229276403</v>
       </c>
       <c r="E19">
-        <v>-0.020236271715912087</v>
+        <v>-0.020236224079133676</v>
       </c>
       <c r="F19">
-        <v>0.99999999996245492</v>
+        <v>0.99960474889048434</v>
       </c>
     </row>
     <row r="20">
@@ -2841,19 +3296,19 @@
         <v>90</v>
       </c>
       <c r="B20">
-        <v>0.0010783615094225678</v>
+        <v>0.00098280297879025594</v>
       </c>
       <c r="C20">
-        <v>0.9989216384551679</v>
+        <v>0.99882164434627563</v>
       </c>
       <c r="D20">
-        <v>0.011196621145449956</v>
+        <v>0.011196571350776612</v>
       </c>
       <c r="E20">
-        <v>-0.02432710282396832</v>
+        <v>-0.024326994634750944</v>
       </c>
       <c r="F20">
-        <v>0.99999999992918087</v>
+        <v>0.99960893289098052</v>
       </c>
     </row>
   </sheetData>

--- a/HWP_polarimeter_high.xlsx
+++ b/HWP_polarimeter_high.xlsx
@@ -14,6 +14,7 @@
     <sheet name="rho" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="rho_mat" sheetId="6" r:id="rId8"/>
     <sheet name="rho_min" sheetId="7" r:id="rId10"/>
+    <sheet name="rho_max" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="true"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="6">
   <si>
     <t>theta</t>
   </si>
@@ -66,7 +67,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="74">
     <border>
       <left/>
       <right/>
@@ -123,11 +124,41 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="false" pivotButton="false"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="false" pivotButton="false" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
@@ -174,6 +205,36 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="false"/>
@@ -2510,22 +2571,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="42" t="s">
+      <c r="A1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="68" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2554,7 +2615,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.027496138799420353</v>
+        <v>0.027496138799420356</v>
       </c>
       <c r="C3">
         <v>0.97250386120057963</v>
@@ -2574,13 +2635,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.11511383853940015</v>
+        <v>0.11511383853940013</v>
       </c>
       <c r="C4">
         <v>0.88488616146059984</v>
       </c>
       <c r="D4">
-        <v>-0.31858363579985211</v>
+        <v>-0.31858363579985216</v>
       </c>
       <c r="E4">
         <v>-0.019160103865439489</v>
@@ -2620,10 +2681,10 @@
         <v>0.59927513222678719</v>
       </c>
       <c r="D6">
-        <v>-0.48966788192943894</v>
+        <v>-0.48966788192943889</v>
       </c>
       <c r="E6">
-        <v>-0.019230532201417412</v>
+        <v>-0.019230532201417409</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2643,7 +2704,7 @@
         <v>-0.49325052284610688</v>
       </c>
       <c r="E7">
-        <v>-0.018150807305716346</v>
+        <v>-0.018150807305716343</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2919,30 +2980,30 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
-    <col min="3" max="3" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
     <col min="4" max="4" width="15.42578125" customWidth="true"/>
     <col min="5" max="5" width="15.42578125" customWidth="true"/>
-    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="8.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="A1" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="70" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2951,19 +3012,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.00059532557543083401</v>
+        <v>0.10061435376087723</v>
       </c>
       <c r="C2">
-        <v>0.99921129988153923</v>
+        <v>0.89938564623912276</v>
       </c>
       <c r="D2">
-        <v>0.001386698802941624</v>
+        <v>0.0011091903430378979</v>
       </c>
       <c r="E2">
-        <v>-0.019214748746993447</v>
+        <v>-0.015369461420788353</v>
       </c>
       <c r="F2">
-        <v>0.99961328830765406</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2971,19 +3032,19 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.027258482758001829</v>
+        <v>0.12127453166034817</v>
       </c>
       <c r="C3">
-        <v>0.97321295403075514</v>
+        <v>0.87872546833965193</v>
       </c>
       <c r="D3">
-        <v>-0.16256501875478024</v>
+        <v>-0.13017013975464731</v>
       </c>
       <c r="E3">
-        <v>-0.019139522238950085</v>
+        <v>-0.015325525157656675</v>
       </c>
       <c r="F3">
-        <v>1.0009430958301599</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2991,19 +3052,19 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.11488863180378363</v>
+        <v>0.19126294487939335</v>
       </c>
       <c r="C4">
-        <v>0.8857630972643934</v>
+        <v>0.80873705512060656</v>
       </c>
       <c r="D4">
-        <v>-0.31903977661833982</v>
+        <v>-0.2555523772359195</v>
       </c>
       <c r="E4">
-        <v>-0.019187536867256692</v>
+        <v>-0.01536930821511678</v>
       </c>
       <c r="F4">
-        <v>1.0013038828871326</v>
+        <v>0.99999999999999978</v>
       </c>
     </row>
     <row r="5">
@@ -3011,44 +3072,59 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>0.24907592309965904</v>
+        <v>0.29867954211919928</v>
       </c>
       <c r="C5">
-        <v>0.75166339549316963</v>
+        <v>0.70132045788080066</v>
       </c>
       <c r="D5">
-        <v>-0.43278365678344216</v>
+        <v>-0.34671856635026765</v>
       </c>
       <c r="E5">
-        <v>-0.019222973621692521</v>
+        <v>-0.015400216137175357</v>
       </c>
       <c r="F5">
-        <v>1.0014791837776389</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
         <v>20</v>
       </c>
+      <c r="B6">
+        <v>0.42032577236697916</v>
+      </c>
+      <c r="C6">
+        <v>0.57967422763302079</v>
+      </c>
+      <c r="D6">
+        <v>-0.39298774440611595</v>
+      </c>
+      <c r="E6">
+        <v>-0.01543365156764236</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
         <v>25</v>
       </c>
       <c r="B7">
-        <v>0.58024989399197158</v>
+        <v>0.56403194511571753</v>
       </c>
       <c r="C7">
-        <v>0.42035745846768652</v>
+        <v>0.43596805488428253</v>
       </c>
       <c r="D7">
-        <v>-0.49390502329331676</v>
+        <v>-0.39558718635049156</v>
       </c>
       <c r="E7">
-        <v>-0.018174891844810203</v>
+        <v>-0.014556957285374894</v>
       </c>
       <c r="F7">
-        <v>1.0012150737963266</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -3056,19 +3132,19 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>0.7469950892284698</v>
+        <v>0.69759145411665591</v>
       </c>
       <c r="C8">
-        <v>0.25313770985514916</v>
+        <v>0.30240854588334404</v>
       </c>
       <c r="D8">
-        <v>-0.43456754392317826</v>
+        <v>-0.34773939401157739</v>
       </c>
       <c r="E8">
-        <v>-0.016548264697781381</v>
+        <v>-0.013241862210876542</v>
       </c>
       <c r="F8">
-        <v>1.0002656158028347</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -3076,19 +3152,19 @@
         <v>35</v>
       </c>
       <c r="B9">
-        <v>0.87490033091871122</v>
+        <v>0.79984901945041442</v>
       </c>
       <c r="C9">
-        <v>0.12490230688793751</v>
+        <v>0.20015098054958561</v>
       </c>
       <c r="D9">
-        <v>-0.32888962341022915</v>
+        <v>-0.26297997575238102</v>
       </c>
       <c r="E9">
-        <v>-0.014231230517463877</v>
+        <v>-0.011379284690113439</v>
       </c>
       <c r="F9">
-        <v>0.99960531456513269</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -3096,19 +3172,19 @@
         <v>40</v>
       </c>
       <c r="B10">
-        <v>0.96345991700538891</v>
+        <v>0.87027962066734987</v>
       </c>
       <c r="C10">
-        <v>0.036340111847509092</v>
+        <v>0.12972037933265015</v>
       </c>
       <c r="D10">
-        <v>-0.17869656108485202</v>
+        <v>-0.14273817576745901</v>
       </c>
       <c r="E10">
-        <v>-0.011947792228298759</v>
+        <v>-0.0095435863833227136</v>
       </c>
       <c r="F10">
-        <v>0.99960009769425562</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -3116,19 +3192,19 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.99497389193019337</v>
+        <v>0.89510556539895858</v>
       </c>
       <c r="C11">
-        <v>0.004826148731185277</v>
+        <v>0.10489443460104131</v>
       </c>
       <c r="D11">
-        <v>-0.0078740320530587792</v>
+        <v>-0.0062840599449167714</v>
       </c>
       <c r="E11">
-        <v>-0.0096604499962788734</v>
+        <v>-0.0077097535877955949</v>
       </c>
       <c r="F11">
-        <v>0.99960012130649434</v>
+        <v>0.99999999999999978</v>
       </c>
     </row>
     <row r="12">
@@ -3136,19 +3212,19 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>0.9683844205700699</v>
+        <v>0.87386678048631761</v>
       </c>
       <c r="C12">
-        <v>0.031415617909514706</v>
+        <v>0.12613321951368231</v>
       </c>
       <c r="D12">
-        <v>0.16005665109696557</v>
+        <v>0.12773075191218108</v>
       </c>
       <c r="E12">
-        <v>-0.0078877475734179421</v>
+        <v>-0.0062946957939022889</v>
       </c>
       <c r="F12">
-        <v>0.99960011694377893</v>
+        <v>0.99999999999999978</v>
       </c>
     </row>
     <row r="13">
@@ -3156,19 +3232,19 @@
         <v>55</v>
       </c>
       <c r="B13">
-        <v>0.88600317152673458</v>
+        <v>0.80829228103254813</v>
       </c>
       <c r="C13">
-        <v>0.11379699859648976</v>
+        <v>0.1917077189674519</v>
       </c>
       <c r="D13">
-        <v>0.31160453174829045</v>
+        <v>0.2488073140058602</v>
       </c>
       <c r="E13">
-        <v>-0.0069659730321522863</v>
+        <v>-0.0055621304024137553</v>
       </c>
       <c r="F13">
-        <v>0.99960038017842823</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -3176,19 +3252,19 @@
         <v>60</v>
       </c>
       <c r="B14">
-        <v>0.75977078945335774</v>
+        <v>0.70757893258873739</v>
       </c>
       <c r="C14">
-        <v>0.24002923946230667</v>
+        <v>0.29242106741126267</v>
       </c>
       <c r="D14">
-        <v>0.42354629073856365</v>
+        <v>0.33831925477169872</v>
       </c>
       <c r="E14">
-        <v>-0.0068722180360004546</v>
+        <v>-0.0054893732642872402</v>
       </c>
       <c r="F14">
-        <v>0.99960009781976344</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -3196,19 +3272,19 @@
         <v>65</v>
       </c>
       <c r="B15">
-        <v>0.59371768301900896</v>
+        <v>0.57495902362077644</v>
       </c>
       <c r="C15">
-        <v>0.40608301838975952</v>
+        <v>0.4250409763792235</v>
       </c>
       <c r="D15">
-        <v>0.48849714412097939</v>
+        <v>0.39030388161163088</v>
       </c>
       <c r="E15">
-        <v>-0.0076710945935877907</v>
+        <v>-0.0061291207781264193</v>
       </c>
       <c r="F15">
-        <v>0.9996014425374653</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -3216,19 +3292,19 @@
         <v>70</v>
       </c>
       <c r="B16">
-        <v>0.41001301903334308</v>
+        <v>0.42818409935224516</v>
       </c>
       <c r="C16">
-        <v>0.5897881008444581</v>
+        <v>0.57181590064775478</v>
       </c>
       <c r="D16">
-        <v>0.48911462688063284</v>
+        <v>0.3907794906340733</v>
       </c>
       <c r="E16">
-        <v>-0.0093135430567184378</v>
+        <v>-0.007441081112037902</v>
       </c>
       <c r="F16">
-        <v>0.99960227930890533</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -3236,19 +3312,19 @@
         <v>75</v>
       </c>
       <c r="B17">
-        <v>0.26264812892270406</v>
+        <v>0.31041924577922908</v>
       </c>
       <c r="C17">
-        <v>0.73715221547654441</v>
+        <v>0.68958075422077092</v>
       </c>
       <c r="D17">
-        <v>0.43732279618954706</v>
+        <v>0.34945109173530181</v>
       </c>
       <c r="E17">
-        <v>-0.012167488744833206</v>
+        <v>-0.0097226631280297095</v>
       </c>
       <c r="F17">
-        <v>0.99960072866085581</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -3256,19 +3332,19 @@
         <v>80</v>
       </c>
       <c r="B18">
-        <v>0.12723485411551444</v>
+        <v>0.20208855656763172</v>
       </c>
       <c r="C18">
-        <v>0.87256908144792955</v>
+        <v>0.79791144343236819</v>
       </c>
       <c r="D18">
-        <v>0.33070171203103288</v>
+        <v>0.26436414903238048</v>
       </c>
       <c r="E18">
-        <v>-0.016172820168632616</v>
+        <v>-0.012928611149533659</v>
       </c>
       <c r="F18">
-        <v>0.99960790956815138</v>
+        <v>0.99999999999999978</v>
       </c>
     </row>
     <row r="19">
@@ -3276,19 +3352,19 @@
         <v>85</v>
       </c>
       <c r="B19">
-        <v>0.038558331935005158</v>
+        <v>0.13111960637461401</v>
       </c>
       <c r="C19">
-        <v>0.96124402297844691</v>
+        <v>0.86888039362538605</v>
       </c>
       <c r="D19">
-        <v>0.18894464229276403</v>
+        <v>0.15107630843075689</v>
       </c>
       <c r="E19">
-        <v>-0.020236224079133676</v>
+        <v>-0.016180474838318245</v>
       </c>
       <c r="F19">
-        <v>0.99960474889048434</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -3296,19 +3372,436 @@
         <v>90</v>
       </c>
       <c r="B20">
-        <v>0.00098280297879025594</v>
+        <v>0.1009346136044043</v>
       </c>
       <c r="C20">
-        <v>0.99882164434627563</v>
+        <v>0.89906538639559574</v>
       </c>
       <c r="D20">
-        <v>0.011196571350776612</v>
+        <v>0.0089556827959916714</v>
       </c>
       <c r="E20">
-        <v>-0.024326994634750944</v>
+        <v>-0.019458175230894166</v>
       </c>
       <c r="F20">
-        <v>0.99960893289098052</v>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F20"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" customWidth="true"/>
+    <col min="4" max="4" width="15.42578125" customWidth="true"/>
+    <col min="5" max="5" width="15.42578125" customWidth="true"/>
+    <col min="6" max="6" width="8.5703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.00037174451164902732</v>
+      </c>
+      <c r="C2">
+        <v>0.99962825548835099</v>
+      </c>
+      <c r="D2">
+        <v>0.0013875882654148931</v>
+      </c>
+      <c r="E2">
+        <v>-0.019227073556034518</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.027496139236712454</v>
+      </c>
+      <c r="C3">
+        <v>0.97250386076328754</v>
+      </c>
+      <c r="D3">
+        <v>-0.16240231706574146</v>
+      </c>
+      <c r="E3">
+        <v>-0.019120366625894312</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0.11511383892935104</v>
+      </c>
+      <c r="C4">
+        <v>0.88488616107064888</v>
+      </c>
+      <c r="D4">
+        <v>-0.31858363547708285</v>
+      </c>
+      <c r="E4">
+        <v>-0.019160103846028616</v>
+      </c>
+      <c r="F4">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.24911725388979794</v>
+      </c>
+      <c r="C5">
+        <v>0.75088274611020212</v>
+      </c>
+      <c r="D5">
+        <v>-0.43207584052312553</v>
+      </c>
+      <c r="E5">
+        <v>-0.019191534510977621</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>0.40072486786536965</v>
+      </c>
+      <c r="C6">
+        <v>0.59927513213463035</v>
+      </c>
+      <c r="D6">
+        <v>-0.48966788147486556</v>
+      </c>
+      <c r="E6">
+        <v>-0.019230532183565616</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>0.57984027659980653</v>
+      </c>
+      <c r="C7">
+        <v>0.42015972340019342</v>
+      </c>
+      <c r="D7">
+        <v>-0.49325052238355066</v>
+      </c>
+      <c r="E7">
+        <v>-0.018150807288698407</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>0.74688100980826644</v>
+      </c>
+      <c r="C8">
+        <v>0.25311899019173356</v>
+      </c>
+      <c r="D8">
+        <v>-0.43448363254115124</v>
+      </c>
+      <c r="E8">
+        <v>-0.016545069365363565</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>0.87575491048800036</v>
+      </c>
+      <c r="C9">
+        <v>0.12424508951199958</v>
+      </c>
+      <c r="D9">
+        <v>-0.32955257759418316</v>
+      </c>
+      <c r="E9">
+        <v>-0.014259916900805927</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>0.96640148657509706</v>
+      </c>
+      <c r="C10">
+        <v>0.033598513424902922</v>
+      </c>
+      <c r="D10">
+        <v>-0.17979195627611444</v>
+      </c>
+      <c r="E10">
+        <v>-0.012021031209920048</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>0.99984164355844218</v>
+      </c>
+      <c r="C11">
+        <v>0.00015835644155790448</v>
+      </c>
+      <c r="D11">
+        <v>-0.0079498623308818916</v>
+      </c>
+      <c r="E11">
+        <v>-0.0097534842387327798</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>0.97308820427436227</v>
+      </c>
+      <c r="C12">
+        <v>0.026911795725637691</v>
+      </c>
+      <c r="D12">
+        <v>0.16162953010734069</v>
+      </c>
+      <c r="E12">
+        <v>-0.0079652605821703901</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>0.88905436183334607</v>
+      </c>
+      <c r="C13">
+        <v>0.11094563816665397</v>
+      </c>
+      <c r="D13">
+        <v>0.31398635880798847</v>
+      </c>
+      <c r="E13">
+        <v>-0.0070192191867316763</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>0.76145925481575183</v>
+      </c>
+      <c r="C14">
+        <v>0.23854074518424823</v>
+      </c>
+      <c r="D14">
+        <v>0.42613524956158427</v>
+      </c>
+      <c r="E14">
+        <v>-0.0069142249899204165</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>0.59429187200710576</v>
+      </c>
+      <c r="C15">
+        <v>0.40570812799289424</v>
+      </c>
+      <c r="D15">
+        <v>0.49096802320941468</v>
+      </c>
+      <c r="E15">
+        <v>-0.0077098959406270082</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>70</v>
+      </c>
+      <c r="B16">
+        <v>0.4096412987492804</v>
+      </c>
+      <c r="C16">
+        <v>0.59035870125071965</v>
+      </c>
+      <c r="D16">
+        <v>0.49167840172755006</v>
+      </c>
+      <c r="E16">
+        <v>-0.0093623615260755664</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>75</v>
+      </c>
+      <c r="B17">
+        <v>0.26164314287052981</v>
+      </c>
+      <c r="C17">
+        <v>0.73835685712947019</v>
+      </c>
+      <c r="D17">
+        <v>0.43935928142521785</v>
+      </c>
+      <c r="E17">
+        <v>-0.012224149205710034</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <v>0.12621431158014049</v>
+      </c>
+      <c r="C18">
+        <v>0.87378568841985949</v>
+      </c>
+      <c r="D18">
+        <v>0.33169432600876819</v>
+      </c>
+      <c r="E18">
+        <v>-0.016221363513812752</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>85</v>
+      </c>
+      <c r="B19">
+        <v>0.037682304663599439</v>
+      </c>
+      <c r="C19">
+        <v>0.96231769533640066</v>
+      </c>
+      <c r="D19">
+        <v>0.18934389558413248</v>
+      </c>
+      <c r="E19">
+        <v>-0.020278984641012666</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>90</v>
+      </c>
+      <c r="B20">
+        <v>0.00071872366884223452</v>
+      </c>
+      <c r="C20">
+        <v>0.99928127633115771</v>
+      </c>
+      <c r="D20">
+        <v>0.011204691985907256</v>
+      </c>
+      <c r="E20">
+        <v>-0.024344638486700338</v>
+      </c>
+      <c r="F20">
+        <v>0.99999999999999978</v>
       </c>
     </row>
   </sheetData>
